--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H2">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I2">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J2">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>6455.425719279657</v>
+        <v>5863.781309109408</v>
       </c>
       <c r="R2">
-        <v>58098.83147351691</v>
+        <v>52774.03178198468</v>
       </c>
       <c r="S2">
-        <v>0.09622089324859137</v>
+        <v>0.09610339065575232</v>
       </c>
       <c r="T2">
-        <v>0.1077344138132275</v>
+        <v>0.10254344600917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H3">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I3">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J3">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>6908.235341228553</v>
+        <v>7113.477025325759</v>
       </c>
       <c r="R3">
-        <v>62174.11807105698</v>
+        <v>64021.29322793184</v>
       </c>
       <c r="S3">
-        <v>0.1029702151663319</v>
+        <v>0.1165850541567059</v>
       </c>
       <c r="T3">
-        <v>0.1152913405460313</v>
+        <v>0.124397621403577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H4">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I4">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J4">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>3468.850651236278</v>
+        <v>4015.910296542592</v>
       </c>
       <c r="R4">
-        <v>31219.6558611265</v>
+        <v>36143.19266888333</v>
       </c>
       <c r="S4">
-        <v>0.05170470898783074</v>
+        <v>0.06581804056497256</v>
       </c>
       <c r="T4">
-        <v>0.05789154856207912</v>
+        <v>0.07022862193571987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H5">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I5">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J5">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>7904.987573898047</v>
+        <v>4379.6528417868</v>
       </c>
       <c r="R5">
-        <v>47429.92544338828</v>
+        <v>26277.9170507208</v>
       </c>
       <c r="S5">
-        <v>0.1178272353452719</v>
+        <v>0.07177953368365626</v>
       </c>
       <c r="T5">
-        <v>0.08795073989014265</v>
+        <v>0.05105973671778275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H6">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I6">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J6">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>3963.184677705403</v>
+        <v>4320.36361899936</v>
       </c>
       <c r="R6">
-        <v>35668.66209934862</v>
+        <v>38883.27257099425</v>
       </c>
       <c r="S6">
-        <v>0.05907296999158987</v>
+        <v>0.07080782361487084</v>
       </c>
       <c r="T6">
-        <v>0.06614147488537765</v>
+        <v>0.07555277902615537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J7">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>1942.200036638322</v>
+        <v>1713.294519219008</v>
       </c>
       <c r="R7">
-        <v>17479.8003297449</v>
+        <v>15419.65067297107</v>
       </c>
       <c r="S7">
-        <v>0.02894932581048112</v>
+        <v>0.02807973282241511</v>
       </c>
       <c r="T7">
-        <v>0.03241332044613894</v>
+        <v>0.02996140455586406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J8">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>2078.433788304427</v>
+        <v>2078.433788304426</v>
       </c>
       <c r="R8">
         <v>18705.90409473984</v>
       </c>
       <c r="S8">
-        <v>0.03097994839773663</v>
+        <v>0.03406411729564873</v>
       </c>
       <c r="T8">
-        <v>0.03468692160206122</v>
+        <v>0.03634681304084987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J9">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>1043.649505841692</v>
+        <v>1173.378872444103</v>
       </c>
       <c r="R9">
-        <v>9392.845552575231</v>
+        <v>10560.40985199693</v>
       </c>
       <c r="S9">
-        <v>0.01555604418011092</v>
+        <v>0.01923088229612518</v>
       </c>
       <c r="T9">
-        <v>0.01741743652978874</v>
+        <v>0.02051957716565101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J10">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>2378.319854226976</v>
+        <v>1279.658093363467</v>
       </c>
       <c r="R10">
-        <v>14269.91912536186</v>
+        <v>7677.9485601808</v>
       </c>
       <c r="S10">
-        <v>0.03544987902519237</v>
+        <v>0.02097272650009224</v>
       </c>
       <c r="T10">
-        <v>0.02646114100993229</v>
+        <v>0.01491876358612515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J11">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>1192.376422712953</v>
+        <v>1262.33481763136</v>
       </c>
       <c r="R11">
-        <v>10731.38780441658</v>
+        <v>11361.01335868224</v>
       </c>
       <c r="S11">
-        <v>0.01777288276113925</v>
+        <v>0.02068880978366667</v>
       </c>
       <c r="T11">
-        <v>0.019899535759824</v>
+        <v>0.02207520290979897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H12">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I12">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J12">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>2107.681961166115</v>
+        <v>2610.765105719319</v>
       </c>
       <c r="R12">
-        <v>18969.13765049503</v>
+        <v>23496.88595147387</v>
       </c>
       <c r="S12">
-        <v>0.0314159049776777</v>
+        <v>0.04278866581800567</v>
       </c>
       <c r="T12">
-        <v>0.03517504351615143</v>
+        <v>0.04565600873365702</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H13">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I13">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J13">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>2255.52328310617</v>
+        <v>3167.174323026929</v>
       </c>
       <c r="R13">
-        <v>20299.70954795554</v>
+        <v>28504.56890724236</v>
       </c>
       <c r="S13">
-        <v>0.0336195433858526</v>
+        <v>0.05190783475636707</v>
       </c>
       <c r="T13">
-        <v>0.0376423630778986</v>
+        <v>0.05538626904287943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H14">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I14">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J14">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>1132.571926550783</v>
+        <v>1788.026857963556</v>
       </c>
       <c r="R14">
-        <v>10193.14733895705</v>
+        <v>16092.241721672</v>
       </c>
       <c r="S14">
-        <v>0.01688147105705598</v>
+        <v>0.02930454506666235</v>
       </c>
       <c r="T14">
-        <v>0.01890146024666547</v>
+        <v>0.03126829359882437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H15">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I15">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J15">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>2580.96064260908</v>
+        <v>1949.978045180213</v>
       </c>
       <c r="R15">
-        <v>15485.76385565448</v>
+        <v>11699.86827108128</v>
       </c>
       <c r="S15">
-        <v>0.03847032701958127</v>
+        <v>0.03195881496381326</v>
       </c>
       <c r="T15">
-        <v>0.02871571852868473</v>
+        <v>0.02273362049210683</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H16">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I16">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J16">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>1293.970873062997</v>
+        <v>1923.58036323423</v>
       </c>
       <c r="R16">
-        <v>11645.73785756697</v>
+        <v>17312.22326910807</v>
       </c>
       <c r="S16">
-        <v>0.01928719168310322</v>
+        <v>0.03152617489646969</v>
       </c>
       <c r="T16">
-        <v>0.0215950426142287</v>
+        <v>0.03363879870744485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H17">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I17">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J17">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>750.682641887464</v>
+        <v>265.0118093946525</v>
       </c>
       <c r="R17">
-        <v>4504.095851324784</v>
+        <v>1590.070856367915</v>
       </c>
       <c r="S17">
-        <v>0.01118924723010899</v>
+        <v>0.004343363455092807</v>
       </c>
       <c r="T17">
-        <v>0.008352080652814063</v>
+        <v>0.003089613196207957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H18">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I18">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J18">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>803.33855306331</v>
+        <v>321.4914264691749</v>
       </c>
       <c r="R18">
-        <v>4820.03131837986</v>
+        <v>1928.94855881505</v>
       </c>
       <c r="S18">
-        <v>0.01197410620432452</v>
+        <v>0.005269025995639449</v>
       </c>
       <c r="T18">
-        <v>0.00893792930902158</v>
+        <v>0.003748075061091696</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H19">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I19">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J19">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>403.3825319073879</v>
+        <v>181.4978420835767</v>
       </c>
       <c r="R19">
-        <v>2420.295191444328</v>
+        <v>1088.98705250146</v>
       </c>
       <c r="S19">
-        <v>0.006012589909459668</v>
+        <v>0.002974626286597171</v>
       </c>
       <c r="T19">
-        <v>0.004488026300909075</v>
+        <v>0.002115974111740854</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H20">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I20">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J20">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>919.2479650627185</v>
+        <v>197.9370755725938</v>
       </c>
       <c r="R20">
-        <v>3676.991860250874</v>
+        <v>791.748302290375</v>
       </c>
       <c r="S20">
-        <v>0.01370178577860775</v>
+        <v>0.003244054151449806</v>
       </c>
       <c r="T20">
-        <v>0.006818356800182941</v>
+        <v>0.001538419494348359</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H21">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I21">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J21">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>460.8671950577091</v>
+        <v>195.257517215925</v>
       </c>
       <c r="R21">
-        <v>2765.203170346254</v>
+        <v>1171.54510329555</v>
       </c>
       <c r="S21">
-        <v>0.006869423506026169</v>
+        <v>0.003200138011000336</v>
       </c>
       <c r="T21">
-        <v>0.005127599558822909</v>
+        <v>0.002276389883255132</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H22">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I22">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J22">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>3833.97162323426</v>
+        <v>3472.264925926458</v>
       </c>
       <c r="R22">
-        <v>34505.74460910834</v>
+        <v>31250.38433333812</v>
       </c>
       <c r="S22">
-        <v>0.05714699391173814</v>
+        <v>0.05690806239962916</v>
       </c>
       <c r="T22">
-        <v>0.06398504194263775</v>
+        <v>0.06072157063704555</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H23">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I23">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J23">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>4102.901871489556</v>
+        <v>4212.27796098926</v>
       </c>
       <c r="R23">
-        <v>36926.11684340601</v>
+        <v>37910.50164890334</v>
       </c>
       <c r="S23">
-        <v>0.06115551477991375</v>
+        <v>0.06903637313463348</v>
       </c>
       <c r="T23">
-        <v>0.06847321110643119</v>
+        <v>0.07366262056828346</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H24">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I24">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J24">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>2060.201068127483</v>
+        <v>2378.039652790125</v>
       </c>
       <c r="R24">
-        <v>18541.80961314735</v>
+        <v>21402.35687511113</v>
       </c>
       <c r="S24">
-        <v>0.03070818187170604</v>
+        <v>0.03897445380371278</v>
       </c>
       <c r="T24">
-        <v>0.03438263626041178</v>
+        <v>0.04158619973850728</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H25">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I25">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J25">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>4694.887581128652</v>
+        <v>2593.431464888675</v>
       </c>
       <c r="R25">
-        <v>28169.32548677191</v>
+        <v>15560.58878933205</v>
       </c>
       <c r="S25">
-        <v>0.06997931606721772</v>
+        <v>0.04250457922465916</v>
       </c>
       <c r="T25">
-        <v>0.05223522903751912</v>
+        <v>0.03023525666906627</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H26">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I26">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J26">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>2353.793266736694</v>
+        <v>2558.32308039786</v>
       </c>
       <c r="R26">
-        <v>21184.13940063024</v>
+        <v>23024.90772358074</v>
       </c>
       <c r="S26">
-        <v>0.03508429970335052</v>
+        <v>0.04192917666236175</v>
       </c>
       <c r="T26">
-        <v>0.03928238800301714</v>
+        <v>0.04473892371484699</v>
       </c>
     </row>
   </sheetData>
